--- a/doc/cookbook/demand/demand-priorities.xlsx
+++ b/doc/cookbook/demand/demand-priorities.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="135" yWindow="480" windowWidth="22718" windowHeight="9203" tabRatio="768" activeTab="12"/>
+    <workbookView xWindow="135" yWindow="480" windowWidth="22718" windowHeight="9203" tabRatio="768" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="buffer" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14081" uniqueCount="6477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14095" uniqueCount="6477">
   <si>
     <t>name</t>
   </si>
@@ -68781,7 +68781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -69096,10 +69096,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -69107,14 +69107,15 @@
     <col min="1" max="1" width="26.53125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.86328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -69125,24 +69126,27 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>32</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6472</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="str">
-        <f>"Demand prio " &amp; G2 &amp; " due " &amp; TEXT(D2,"yyyy-mm-dd")</f>
+        <f>"Demand prio " &amp; H2 &amp; " due " &amp; TEXT(E2,"yyyy-mm-dd")</f>
         <v>Demand prio 1 due 2013-12-06</v>
       </c>
       <c r="B2" t="s">
@@ -69151,25 +69155,28 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" t="s">
+        <v>6469</v>
+      </c>
+      <c r="E2" s="1">
         <v>41614</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>33</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>2</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="str">
-        <f t="shared" ref="A3:A14" si="0">"Demand prio " &amp; G3 &amp; " due " &amp; TEXT(D3,"yyyy-mm-dd")</f>
+        <f t="shared" ref="A3:A14" si="0">"Demand prio " &amp; H3 &amp; " due " &amp; TEXT(E3,"yyyy-mm-dd")</f>
         <v>Demand prio 1 due 2013-12-20</v>
       </c>
       <c r="B3" t="s">
@@ -69178,23 +69185,26 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" t="s">
+        <v>6469</v>
+      </c>
+      <c r="E3" s="1">
         <v>41628</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>33</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>2</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>Demand prio 1 due 2014-01-01</v>
@@ -69205,23 +69215,26 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" t="s">
+        <v>6469</v>
+      </c>
+      <c r="E4" s="1">
         <v>41640</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>33</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>4</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>Demand prio 2 due 2013-12-30</v>
@@ -69232,23 +69245,26 @@
       <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" t="s">
+        <v>6469</v>
+      </c>
+      <c r="E5" s="1">
         <v>41638</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>33</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>6</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>2</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>Demand prio 3 due 2013-12-29</v>
@@ -69259,23 +69275,26 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" t="s">
+        <v>6469</v>
+      </c>
+      <c r="E6" s="1">
         <v>41637</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>33</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>5</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>3</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>Demand prio 1 due 2013-12-07</v>
@@ -69286,23 +69305,26 @@
       <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" t="s">
+        <v>6469</v>
+      </c>
+      <c r="E7" s="1">
         <v>41615</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>33</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>5</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>1</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>Demand prio 1 due 2013-12-31</v>
@@ -69313,23 +69335,26 @@
       <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" t="s">
+        <v>6469</v>
+      </c>
+      <c r="E8" s="1">
         <v>41639</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>33</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>9</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>Demand prio 2 due 2013-12-09</v>
@@ -69340,23 +69365,26 @@
       <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" t="s">
+        <v>6469</v>
+      </c>
+      <c r="E9" s="1">
         <v>41617</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>33</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>1</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>2</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>Demand prio 2 due 2013-12-17</v>
@@ -69367,23 +69395,26 @@
       <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" t="s">
+        <v>6469</v>
+      </c>
+      <c r="E10" s="1">
         <v>41625</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>33</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>6</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>2</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>Demand prio 2 due 2013-12-17</v>
@@ -69394,23 +69425,26 @@
       <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" t="s">
+        <v>6469</v>
+      </c>
+      <c r="E11" s="1">
         <v>41625</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>33</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>9</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>2</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>Demand prio 1 due 2013-12-04</v>
@@ -69421,23 +69455,26 @@
       <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" t="s">
+        <v>6469</v>
+      </c>
+      <c r="E12" s="1">
         <v>41612</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>33</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>3</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>1</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>Demand prio 3 due 2013-12-11</v>
@@ -69448,23 +69485,26 @@
       <c r="C13" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" t="s">
+        <v>6469</v>
+      </c>
+      <c r="E13" s="1">
         <v>41619</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>33</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>4</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>3</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>Demand prio 3 due 2013-12-24</v>
@@ -69475,19 +69515,22 @@
       <c r="C14" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" t="s">
+        <v>6469</v>
+      </c>
+      <c r="E14" s="1">
         <v>41632</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>33</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>7</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>3</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>7</v>
       </c>
     </row>
